--- a/Data/data_times.xlsx
+++ b/Data/data_times.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t xml:space="preserve">participant</t>
   </si>
@@ -136,6 +136,12 @@
     <t xml:space="preserve">2022-11-23-16-16</t>
   </si>
   <si>
+    <t xml:space="preserve">s.5e990024-7b7c-42a7-8523-f140a5a4b276.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-20-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">s.9009c708-e5d3-4bd4-81ee-7ab60b37b7cb.txt</t>
   </si>
   <si>
@@ -143,6 +149,27 @@
   </si>
   <si>
     <t xml:space="preserve">2022-11-23-20-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.d6e5f0fa-eb62-4daf-8dae-687db3e5ea6d.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-20-42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.7826dd08-75f0-4cc3-97d3-dc4cb73451cc.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-22-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s.d1f707e8-ce0f-4ed3-a9ed-19fbade2cf28.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-17-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-11-24-18-03</t>
   </si>
 </sst>
 </file>
@@ -234,11 +261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -246,26 +273,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -676,49 +703,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2250</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2385</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>72731</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>14367</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>147847</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>37119</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>6124</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>9966</v>
-      </c>
-      <c r="K9" s="0" t="n">
-        <v>15004</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>3809</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>7866</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>4582</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>4211</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>4048</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>3537</v>
+        <v>836</v>
       </c>
       <c r="R9" s="0" t="n">
         <v>0</v>
@@ -726,11 +711,157 @@
       <c r="S9" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="T9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="B10" s="0" t="n">
+        <v>2250</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2385</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>72731</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>14367</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>147847</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>37119</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>6124</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>9966</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>15004</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>3809</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>7866</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>4582</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>4211</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>4048</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>3537</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" s="0" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>918</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>11251</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2757</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>4357</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>65169</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>19275</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>196865</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>44629</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>10086</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>9826</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>41052</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>5056</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>11546</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>7773</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>22381</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>7591</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>3752</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
